--- a/tasks/templates660_20220104_3/template_disease_map.xlsx
+++ b/tasks/templates660_20220104_3/template_disease_map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy.li/Basebit/Projects/AutoTemplate/tasks/templates660_0104/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy.li/Basebit/Projects/AutoTemplate/tasks/templates660_20220104_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA02C54C-DF5C-6E4C-9C4D-0FF81049469A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED581EE-7928-2741-A51F-7A19CF707289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="3160" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="110">
   <si>
     <t>unknow_code</t>
   </si>
@@ -247,85 +247,117 @@
     <t>昏迷</t>
   </si>
   <si>
+    <t>甲亢危象</t>
+  </si>
+  <si>
+    <t>甲状腺炎</t>
+  </si>
+  <si>
+    <t>惊厥</t>
+  </si>
+  <si>
+    <t>咳嗽</t>
+  </si>
+  <si>
+    <t>淋巴结肿大</t>
+  </si>
+  <si>
+    <t>导管相关性尿路感染</t>
+  </si>
+  <si>
+    <t>复诊</t>
+  </si>
+  <si>
+    <t>溶血危象</t>
+  </si>
+  <si>
+    <t>肾上腺</t>
+  </si>
+  <si>
+    <t>肾上腺危象</t>
+  </si>
+  <si>
+    <t>肢体麻木</t>
+  </si>
+  <si>
+    <t>糖尿病</t>
+  </si>
+  <si>
+    <t>1型糖尿病酮症</t>
+  </si>
+  <si>
+    <t>头痛</t>
+  </si>
+  <si>
+    <t>性发育畸形</t>
+  </si>
+  <si>
+    <t>胸闷</t>
+  </si>
+  <si>
+    <t>胸痛</t>
+  </si>
+  <si>
+    <t>血尿</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>type_</t>
+  </si>
+  <si>
+    <t>初诊</t>
+  </si>
+  <si>
+    <t>disease_eg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮小症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏膜皮肤淋巴结综合征[川崎病]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急性上呼吸道感染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发绀[紫绀]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>甲亢性皮肤病,甲亢性周期性麻痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲亢性皮肤病</t>
   </si>
   <si>
     <t>甲亢危象</t>
-  </si>
-  <si>
-    <t>甲状腺炎</t>
-  </si>
-  <si>
-    <t>惊厥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>婴儿过度哭闹,新生儿哭闹,哭闹</t>
-  </si>
-  <si>
-    <t>咳嗽</t>
-  </si>
-  <si>
-    <t>淋巴结肿大</t>
-  </si>
-  <si>
-    <t>导管相关性尿路感染</t>
-  </si>
-  <si>
-    <t>复诊</t>
-  </si>
-  <si>
-    <t>溶血危象</t>
-  </si>
-  <si>
-    <t>肾上腺</t>
-  </si>
-  <si>
-    <t>肾上腺危象</t>
-  </si>
-  <si>
-    <t>肢体麻木</t>
-  </si>
-  <si>
-    <t>糖尿病</t>
-  </si>
-  <si>
-    <t>1型糖尿病酮症</t>
-  </si>
-  <si>
-    <t>头痛</t>
-  </si>
-  <si>
-    <t>性发育畸形</t>
-  </si>
-  <si>
-    <t>胸闷</t>
-  </si>
-  <si>
-    <t>胸痛</t>
-  </si>
-  <si>
-    <t>血尿</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>type_</t>
-  </si>
-  <si>
-    <t>初诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴儿过度哭闹</t>
   </si>
 </sst>
 </file>
@@ -708,15 +740,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -742,19 +774,22 @@
         <v>65</v>
       </c>
       <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
         <v>95</v>
       </c>
-      <c r="J1" t="s">
-        <v>97</v>
-      </c>
       <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -774,13 +809,16 @@
         <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -797,16 +835,19 @@
         <v>42</v>
       </c>
       <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
         <v>67</v>
       </c>
-      <c r="K3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:13">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -823,16 +864,19 @@
         <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -849,16 +893,19 @@
         <v>43</v>
       </c>
       <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:13">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -878,13 +925,16 @@
         <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -904,13 +954,16 @@
         <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -930,13 +983,16 @@
         <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -956,13 +1012,16 @@
         <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -982,13 +1041,16 @@
         <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -1005,16 +1067,19 @@
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -1028,16 +1093,19 @@
         <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1054,16 +1122,19 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -1080,16 +1151,19 @@
         <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -1106,16 +1180,19 @@
         <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>99</v>
+      </c>
+      <c r="M15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -1132,16 +1209,19 @@
         <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
       <c r="C17" t="s">
         <v>18</v>
       </c>
@@ -1158,16 +1238,19 @@
         <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -1184,16 +1267,19 @@
         <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -1207,19 +1293,22 @@
         <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
+        <v>81</v>
+      </c>
+      <c r="M19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
       <c r="C20" t="s">
         <v>21</v>
       </c>
@@ -1236,16 +1325,19 @@
         <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -1259,16 +1351,19 @@
         <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -1282,16 +1377,19 @@
         <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
       <c r="C23" t="s">
         <v>24</v>
       </c>
@@ -1308,16 +1406,19 @@
         <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
       <c r="C24" t="s">
         <v>25</v>
       </c>
@@ -1334,16 +1435,19 @@
         <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -1360,16 +1464,19 @@
         <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
       <c r="C26" t="s">
         <v>27</v>
       </c>
@@ -1386,16 +1493,19 @@
         <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -1412,16 +1522,19 @@
         <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
       <c r="C28" t="s">
         <v>29</v>
       </c>
@@ -1438,16 +1551,19 @@
         <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
       <c r="C29" t="s">
         <v>30</v>
       </c>
@@ -1464,16 +1580,19 @@
         <v>63</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
       <c r="C30" t="s">
         <v>31</v>
       </c>
@@ -1490,16 +1609,19 @@
         <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12">
+        <v>99</v>
+      </c>
+      <c r="M30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
       <c r="C31" t="s">
         <v>32</v>
       </c>
@@ -1516,16 +1638,19 @@
         <v>68</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12">
+        <v>81</v>
+      </c>
+      <c r="M31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -1545,10 +1670,13 @@
         <v>66</v>
       </c>
       <c r="K32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L32" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="M32" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
